--- a/waves20/waves20.xlsx
+++ b/waves20/waves20.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="573">
   <si>
     <t>audio19</t>
   </si>
@@ -43,162 +43,1524 @@
     <t>Example</t>
   </si>
   <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>lens</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>advance</t>
+  </si>
+  <si>
+    <t>cascade</t>
+  </si>
+  <si>
+    <t>boundary</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>noon</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>Dressing</t>
+  </si>
+  <si>
+    <t>skeleton</t>
+  </si>
+  <si>
+    <t>earn</t>
+  </si>
+  <si>
+    <t>tube</t>
+  </si>
+  <si>
+    <t>cone</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
     <t>Picture</t>
   </si>
   <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>preference</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
     <t>Marketplace</t>
   </si>
   <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>basket</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>nourish</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>Melody</t>
+  </si>
+  <si>
+    <t>nerve</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>trace</t>
+  </si>
+  <si>
+    <t>cabin</t>
+  </si>
+  <si>
     <t>Film</t>
   </si>
   <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>territory</t>
+  </si>
+  <si>
+    <t>cube</t>
+  </si>
+  <si>
     <t>Media Centre</t>
   </si>
   <si>
+    <t>ace</t>
+  </si>
+  <si>
+    <t>giant</t>
+  </si>
+  <si>
+    <t>vitamin</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>Cinematograph</t>
+  </si>
+  <si>
+    <t>palm</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>slate</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
     <t>Contest</t>
   </si>
   <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>streamline</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>finite</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
     <t>Studio</t>
   </si>
   <si>
+    <t>candle</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>boil</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>ideal</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>forehead</t>
+  </si>
+  <si>
+    <t>micro</t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
     <t>Bulletin</t>
   </si>
   <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>mechanic</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>afloat</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>Production</t>
   </si>
   <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>crop</t>
+  </si>
+  <si>
+    <t>bundle</t>
+  </si>
+  <si>
+    <t>tweet</t>
+  </si>
+  <si>
+    <t>Dubbing</t>
+  </si>
+  <si>
+    <t>retina</t>
+  </si>
+  <si>
+    <t>pilot</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
     <t>Promotion</t>
   </si>
   <si>
+    <t>orbit</t>
+  </si>
+  <si>
+    <t>prototype</t>
+  </si>
+  <si>
+    <t>waterfall</t>
+  </si>
+  <si>
+    <t>blink</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
     <t>Presentation</t>
   </si>
   <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>compute</t>
+  </si>
+  <si>
+    <t>mineral</t>
+  </si>
+  <si>
+    <t>vault</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
     <t>Ceremony</t>
   </si>
   <si>
+    <t>spin</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>alternate</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
     <t>Community</t>
   </si>
   <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>exist</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>brow</t>
+  </si>
+  <si>
+    <t>scheme</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
     <t>Reception</t>
   </si>
   <si>
+    <t>wave</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>opposite</t>
+  </si>
+  <si>
+    <t>sine</t>
+  </si>
+  <si>
     <t>Library</t>
   </si>
   <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>clone</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>shine</t>
+  </si>
+  <si>
+    <t>Chartbuster</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>Conference</t>
   </si>
   <si>
+    <t>torque</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>inverse</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
     <t>Generation</t>
   </si>
   <si>
+    <t>essay</t>
+  </si>
+  <si>
+    <t>arrow</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t>spine</t>
+  </si>
+  <si>
+    <t>badge</t>
+  </si>
+  <si>
+    <t>slab</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
     <t>Telemarketing</t>
   </si>
   <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>Fibonacci</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>lean</t>
+  </si>
+  <si>
     <t>Access</t>
   </si>
   <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>cereal</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>rib</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
     <t>Documentary</t>
   </si>
   <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>scrutiny</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
     <t>Administration</t>
   </si>
   <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>Greenhouse</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
+    <t>matter</t>
+  </si>
+  <si>
+    <t>notion</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
     <t>Mythology</t>
   </si>
   <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>collage</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>segment</t>
+  </si>
+  <si>
     <t>Entertainment</t>
   </si>
   <si>
+    <t>multiplex</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>Filming</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>bracket</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>pitch</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
     <t>Drama</t>
   </si>
   <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>marble</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
     <t>Federation</t>
   </si>
   <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>aisle</t>
+  </si>
+  <si>
+    <t>starch</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>drum</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>mole</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>witness</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
     <t>Regulatory</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>sponsor</t>
+  </si>
+  <si>
+    <t>cyber</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>laminate</t>
+  </si>
+  <si>
     <t>Premier</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>calcium</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>Telemetry</t>
+  </si>
+  <si>
+    <t>transparent</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
     <t>Assignment</t>
   </si>
   <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>directory</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
     <t>Creator</t>
   </si>
   <si>
+    <t>paragraph</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>equation</t>
+  </si>
+  <si>
+    <t>Film Star</t>
+  </si>
+  <si>
+    <t>appoint</t>
+  </si>
+  <si>
+    <t>stall</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
     <t>Theatre</t>
   </si>
   <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>century</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>parity</t>
+  </si>
+  <si>
     <t>Feature</t>
   </si>
   <si>
+    <t>align</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>finger</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>clutch</t>
+  </si>
+  <si>
+    <t>Filmset</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>tender</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
     <t>Excursion</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>gather</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
     <t>Council</t>
   </si>
   <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>foil</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>Photograph</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>deal</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>fiction</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
     <t>Stereoscopic</t>
   </si>
   <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>committee</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <t>mat</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>gear</t>
+  </si>
+  <si>
+    <t>collar</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>Surround</t>
+  </si>
+  <si>
+    <t>disc</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>dash</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
     <t>Animation</t>
   </si>
   <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>appendix</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
     <t>Curriculum</t>
   </si>
   <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>cron</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>crust</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>organ</t>
+  </si>
+  <si>
     <t>Regional</t>
   </si>
   <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
     <t>Concert</t>
   </si>
   <si>
+    <t>vessel</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>Decorum</t>
+  </si>
+  <si>
+    <t>lift</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>fold</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>leap</t>
+  </si>
+  <si>
     <t>National</t>
   </si>
   <si>
+    <t>rent</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>leak</t>
+  </si>
+  <si>
     <t>Artist</t>
   </si>
   <si>
+    <t>logic</t>
+  </si>
+  <si>
+    <t>relay</t>
+  </si>
+  <si>
+    <t>tangle</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>Infantry</t>
+  </si>
+  <si>
+    <t>scent</t>
+  </si>
+  <si>
+    <t>pole</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
     <t>Episode</t>
   </si>
   <si>
+    <t>recent</t>
+  </si>
+  <si>
+    <t>compact</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
     <t>Repository</t>
   </si>
   <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>Pantry</t>
+  </si>
+  <si>
+    <t>deodorant</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>wrap</t>
+  </si>
+  <si>
+    <t>wide</t>
+  </si>
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
     <t>Academia</t>
   </si>
   <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>metro</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
     <t>Electronic</t>
   </si>
   <si>
+    <t>texture</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>mesh</t>
+  </si>
+  <si>
+    <t>legal</t>
+  </si>
+  <si>
+    <t>nest</t>
+  </si>
+  <si>
+    <t>Compose</t>
+  </si>
+  <si>
+    <t>thirst</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>blaze</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
     <t>Blogging</t>
   </si>
   <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>thrust</t>
+  </si>
+  <si>
     <t>Company</t>
   </si>
   <si>
+    <t>native</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>haystack</t>
+  </si>
+  <si>
+    <t>refer</t>
+  </si>
+  <si>
+    <t>genus</t>
+  </si>
+  <si>
+    <t>Choreograph</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>pulse</t>
+  </si>
+  <si>
+    <t>sight</t>
+  </si>
+  <si>
     <t>Horror</t>
   </si>
   <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>processor</t>
+  </si>
+  <si>
+    <t>ink</t>
+  </si>
+  <si>
+    <t>dedicate</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
     <t>Office</t>
   </si>
   <si>
+    <t>alien</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>sphere</t>
+  </si>
+  <si>
+    <t>Academy</t>
+  </si>
+  <si>
+    <t>bent</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>shuffle</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
     <t>Climate</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>Movie</t>
   </si>
   <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>flux</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>scene</t>
+  </si>
+  <si>
+    <t>Contemporary</t>
+  </si>
+  <si>
+    <t>vibrant</t>
+  </si>
+  <si>
+    <t>admit</t>
+  </si>
+  <si>
+    <t>aid</t>
+  </si>
+  <si>
+    <t>stamp</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>Science Fiction</t>
   </si>
   <si>
+    <t>valve</t>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
     <t>Opera</t>
   </si>
   <si>
+    <t>aerodynamic</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>slip</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>carnival</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>adventure</t>
+  </si>
+  <si>
+    <t>carrier</t>
+  </si>
+  <si>
+    <t>boarding</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>wicket</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>stretch</t>
+  </si>
+  <si>
+    <t>hill</t>
+  </si>
+  <si>
+    <t>plateau</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
     <t>Divisor</t>
   </si>
   <si>
@@ -229,27 +1591,18 @@
     <t>hub</t>
   </si>
   <si>
-    <t>slide</t>
-  </si>
-  <si>
     <t>space</t>
   </si>
   <si>
     <t>case</t>
   </si>
   <si>
-    <t>assembly</t>
-  </si>
-  <si>
     <t>class</t>
   </si>
   <si>
     <t>court</t>
   </si>
   <si>
-    <t>line</t>
-  </si>
-  <si>
     <t>curve</t>
   </si>
   <si>
@@ -310,9 +1663,6 @@
     <t>net</t>
   </si>
   <si>
-    <t>module</t>
-  </si>
-  <si>
     <t>socket</t>
   </si>
   <si>
@@ -328,9 +1678,6 @@
     <t>directive</t>
   </si>
   <si>
-    <t>bar</t>
-  </si>
-  <si>
     <t>member</t>
   </si>
   <si>
@@ -343,9 +1690,6 @@
     <t>batch</t>
   </si>
   <si>
-    <t>version</t>
-  </si>
-  <si>
     <t>volume</t>
   </si>
   <si>
@@ -361,13 +1705,7 @@
     <t>diagram</t>
   </si>
   <si>
-    <t>pitch</t>
-  </si>
-  <si>
     <t>mark</t>
-  </si>
-  <si>
-    <t>state</t>
   </si>
   <si>
     <t>yet</t>
@@ -1405,27 +2743,69 @@
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="12"/>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="W4" s="1"/>
     </row>
     <row r="5">
@@ -1433,34 +2813,66 @@
       <c r="B5" s="13">
         <v>1.0</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
+      <c r="C5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="I5" s="13">
         <v>1.0</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
+        <v>35</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="P5" s="13">
         <v>1.0</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="W5" s="1"/>
     </row>
     <row r="6">
@@ -1468,34 +2880,66 @@
       <c r="B6" s="18">
         <v>2.0</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="C6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="I6" s="18">
         <v>2.0</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="22"/>
+        <v>53</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="P6" s="18">
         <v>2.0</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="V6" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="W6" s="1"/>
     </row>
     <row r="7">
@@ -1503,34 +2947,66 @@
       <c r="B7" s="18">
         <v>3.0</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="C7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="I7" s="18">
         <v>3.0</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="P7" s="18">
         <v>3.0</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="20"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="W7" s="1"/>
     </row>
     <row r="8">
@@ -1538,34 +3014,66 @@
       <c r="B8" s="18">
         <v>4.0</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
+      <c r="C8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>88</v>
+      </c>
       <c r="I8" s="18">
         <v>4.0</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="22"/>
+        <v>89</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>94</v>
+      </c>
       <c r="P8" s="18">
         <v>4.0</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" s="20"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="22"/>
+        <v>95</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="V8" s="22" t="s">
+        <v>100</v>
+      </c>
       <c r="W8" s="1"/>
     </row>
     <row r="9">
@@ -1573,34 +3081,66 @@
       <c r="B9" s="18">
         <v>5.0</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="C9" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="I9" s="18">
         <v>5.0</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="22"/>
+        <v>107</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>112</v>
+      </c>
       <c r="P9" s="18">
         <v>5.0</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="20"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="22"/>
+        <v>113</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="V9" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="W9" s="1"/>
     </row>
     <row r="10">
@@ -1608,34 +3148,66 @@
       <c r="B10" s="18">
         <v>6.0</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="C10" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="I10" s="18">
         <v>6.0</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="22"/>
+        <v>125</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="P10" s="18">
         <v>6.0</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="22"/>
+        <v>131</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="T10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="V10" s="22" t="s">
+        <v>136</v>
+      </c>
       <c r="W10" s="1"/>
     </row>
     <row r="11">
@@ -1643,34 +3215,66 @@
       <c r="B11" s="18">
         <v>7.0</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="C11" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>142</v>
+      </c>
       <c r="I11" s="18">
         <v>7.0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="22"/>
+        <v>143</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="P11" s="18">
         <v>7.0</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="20"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="22"/>
+        <v>149</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="T11" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="V11" s="22" t="s">
+        <v>154</v>
+      </c>
       <c r="W11" s="1"/>
     </row>
     <row r="12">
@@ -1678,34 +3282,66 @@
       <c r="B12" s="18">
         <v>8.0</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="C12" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>160</v>
+      </c>
       <c r="I12" s="18">
         <v>8.0</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="22"/>
+        <v>161</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>166</v>
+      </c>
       <c r="P12" s="18">
         <v>8.0</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="22"/>
+        <v>167</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="V12" s="22" t="s">
+        <v>172</v>
+      </c>
       <c r="W12" s="1"/>
     </row>
     <row r="13">
@@ -1713,34 +3349,66 @@
       <c r="B13" s="18">
         <v>9.0</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+      <c r="C13" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>178</v>
+      </c>
       <c r="I13" s="18">
         <v>9.0</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="22"/>
+        <v>179</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>184</v>
+      </c>
       <c r="P13" s="18">
         <v>9.0</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="R13" s="20"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="22"/>
+        <v>185</v>
+      </c>
+      <c r="R13" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="T13" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="U13" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="V13" s="22" t="s">
+        <v>190</v>
+      </c>
       <c r="W13" s="1"/>
     </row>
     <row r="14">
@@ -1748,34 +3416,66 @@
       <c r="B14" s="18">
         <v>10.0</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="C14" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="I14" s="18">
         <v>10.0</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="22"/>
+        <v>197</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>202</v>
+      </c>
       <c r="P14" s="18">
         <v>10.0</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="22"/>
+        <v>203</v>
+      </c>
+      <c r="R14" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="S14" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="T14" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="U14" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="V14" s="22" t="s">
+        <v>208</v>
+      </c>
       <c r="W14" s="1"/>
     </row>
     <row r="15">
@@ -1783,34 +3483,66 @@
       <c r="B15" s="18">
         <v>11.0</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="C15" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>214</v>
+      </c>
       <c r="I15" s="18">
         <v>11.0</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="22"/>
+        <v>215</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>220</v>
+      </c>
       <c r="P15" s="18">
         <v>11.0</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15" s="20"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="22"/>
+        <v>221</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="V15" s="22" t="s">
+        <v>226</v>
+      </c>
       <c r="W15" s="1"/>
     </row>
     <row r="16">
@@ -1818,34 +3550,66 @@
       <c r="B16" s="18">
         <v>12.0</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+      <c r="C16" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>232</v>
+      </c>
       <c r="I16" s="18">
         <v>12.0</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="22"/>
+        <v>233</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>238</v>
+      </c>
       <c r="P16" s="18">
         <v>12.0</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="22"/>
+        <v>239</v>
+      </c>
+      <c r="R16" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="V16" s="22" t="s">
+        <v>244</v>
+      </c>
       <c r="W16" s="1"/>
     </row>
     <row r="17">
@@ -1853,34 +3617,66 @@
       <c r="B17" s="18">
         <v>13.0</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
+      <c r="C17" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>250</v>
+      </c>
       <c r="I17" s="18">
         <v>13.0</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="22"/>
+        <v>251</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>256</v>
+      </c>
       <c r="P17" s="18">
         <v>13.0</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="22"/>
+        <v>257</v>
+      </c>
+      <c r="R17" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="V17" s="22" t="s">
+        <v>262</v>
+      </c>
       <c r="W17" s="1"/>
     </row>
     <row r="18">
@@ -1888,34 +3684,66 @@
       <c r="B18" s="18">
         <v>14.0</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
+      <c r="C18" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>268</v>
+      </c>
       <c r="I18" s="18">
         <v>14.0</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="22"/>
+        <v>269</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>274</v>
+      </c>
       <c r="P18" s="18">
         <v>14.0</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R18" s="20"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="22"/>
+        <v>275</v>
+      </c>
+      <c r="R18" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="S18" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="T18" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="U18" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="V18" s="22" t="s">
+        <v>280</v>
+      </c>
       <c r="W18" s="1"/>
     </row>
     <row r="19">
@@ -1923,34 +3751,66 @@
       <c r="B19" s="18">
         <v>15.0</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
+      <c r="C19" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>286</v>
+      </c>
       <c r="I19" s="18">
         <v>15.0</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="22"/>
+        <v>287</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>292</v>
+      </c>
       <c r="P19" s="18">
         <v>15.0</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="R19" s="20"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="22"/>
+        <v>293</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="U19" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="V19" s="22" t="s">
+        <v>298</v>
+      </c>
       <c r="W19" s="1"/>
     </row>
     <row r="20">
@@ -1958,34 +3818,66 @@
       <c r="B20" s="18">
         <v>16.0</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
+      <c r="C20" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>304</v>
+      </c>
       <c r="I20" s="18">
         <v>16.0</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="22"/>
+        <v>305</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>310</v>
+      </c>
       <c r="P20" s="18">
         <v>16.0</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="R20" s="20"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="22"/>
+        <v>311</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="S20" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="T20" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="U20" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="V20" s="22" t="s">
+        <v>316</v>
+      </c>
       <c r="W20" s="1"/>
     </row>
     <row r="21">
@@ -1993,34 +3885,66 @@
       <c r="B21" s="18">
         <v>17.0</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
+      <c r="C21" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>322</v>
+      </c>
       <c r="I21" s="18">
         <v>17.0</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="22"/>
+        <v>323</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>328</v>
+      </c>
       <c r="P21" s="18">
         <v>17.0</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="R21" s="20"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="22"/>
+        <v>329</v>
+      </c>
+      <c r="R21" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="S21" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="T21" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="U21" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="V21" s="22" t="s">
+        <v>334</v>
+      </c>
       <c r="W21" s="1"/>
     </row>
     <row r="22">
@@ -2028,34 +3952,66 @@
       <c r="B22" s="18">
         <v>18.0</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
+      <c r="C22" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>340</v>
+      </c>
       <c r="I22" s="18">
         <v>18.0</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="22"/>
+        <v>341</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>346</v>
+      </c>
       <c r="P22" s="18">
         <v>18.0</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="R22" s="20"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="22"/>
+        <v>347</v>
+      </c>
+      <c r="R22" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="S22" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="T22" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="V22" s="22" t="s">
+        <v>352</v>
+      </c>
       <c r="W22" s="1"/>
     </row>
     <row r="23">
@@ -2063,34 +4019,66 @@
       <c r="B23" s="18">
         <v>19.0</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
+      <c r="C23" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>358</v>
+      </c>
       <c r="I23" s="18">
         <v>19.0</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="22"/>
+        <v>359</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>364</v>
+      </c>
       <c r="P23" s="18">
         <v>19.0</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="R23" s="20"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="22"/>
+        <v>365</v>
+      </c>
+      <c r="R23" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="S23" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="T23" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="V23" s="22" t="s">
+        <v>370</v>
+      </c>
       <c r="W23" s="1"/>
     </row>
     <row r="24">
@@ -2098,34 +4086,66 @@
       <c r="B24" s="18">
         <v>20.0</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
+      <c r="C24" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>376</v>
+      </c>
       <c r="I24" s="18">
         <v>20.0</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="22"/>
+        <v>377</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>382</v>
+      </c>
       <c r="P24" s="18">
         <v>20.0</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R24" s="20"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="R24" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="S24" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="T24" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="U24" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="V24" s="22" t="s">
+        <v>388</v>
+      </c>
       <c r="W24" s="1"/>
     </row>
     <row r="25">
@@ -2133,34 +4153,66 @@
       <c r="B25" s="18">
         <v>21.0</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
+      <c r="C25" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>394</v>
+      </c>
       <c r="I25" s="18">
         <v>21.0</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="22"/>
+        <v>395</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>400</v>
+      </c>
       <c r="P25" s="18">
         <v>21.0</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="R25" s="20"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="22"/>
+        <v>401</v>
+      </c>
+      <c r="R25" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="T25" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="U25" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="V25" s="22" t="s">
+        <v>406</v>
+      </c>
       <c r="W25" s="1"/>
     </row>
     <row r="26">
@@ -2168,34 +4220,66 @@
       <c r="B26" s="18">
         <v>22.0</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
+      <c r="C26" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>412</v>
+      </c>
       <c r="I26" s="18">
         <v>22.0</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="22"/>
+        <v>413</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>418</v>
+      </c>
       <c r="P26" s="18">
         <v>22.0</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="R26" s="20"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="22"/>
+        <v>419</v>
+      </c>
+      <c r="R26" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="T26" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="U26" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="V26" s="22" t="s">
+        <v>424</v>
+      </c>
       <c r="W26" s="1"/>
     </row>
     <row r="27">
@@ -2203,34 +4287,66 @@
       <c r="B27" s="18">
         <v>23.0</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
+      <c r="C27" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>430</v>
+      </c>
       <c r="I27" s="18">
         <v>23.0</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="22"/>
+        <v>431</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>436</v>
+      </c>
       <c r="P27" s="18">
         <v>23.0</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="R27" s="20"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="22"/>
+        <v>437</v>
+      </c>
+      <c r="R27" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="S27" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="T27" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="U27" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="V27" s="22" t="s">
+        <v>442</v>
+      </c>
       <c r="W27" s="1"/>
     </row>
     <row r="28">
@@ -2238,34 +4354,66 @@
       <c r="B28" s="18">
         <v>24.0</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
+      <c r="C28" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>448</v>
+      </c>
       <c r="I28" s="18">
         <v>24.0</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="22"/>
+        <v>449</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>454</v>
+      </c>
       <c r="P28" s="18">
         <v>24.0</v>
       </c>
       <c r="Q28" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="R28" s="20"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="22"/>
+        <v>455</v>
+      </c>
+      <c r="R28" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="S28" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="T28" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="U28" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="V28" s="22" t="s">
+        <v>460</v>
+      </c>
       <c r="W28" s="1"/>
     </row>
     <row r="29">
@@ -2273,34 +4421,66 @@
       <c r="B29" s="18">
         <v>25.0</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
+      <c r="C29" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>466</v>
+      </c>
       <c r="I29" s="18">
         <v>25.0</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29" s="20"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="22"/>
+        <v>467</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="O29" s="22" t="s">
+        <v>472</v>
+      </c>
       <c r="P29" s="18">
         <v>25.0</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="R29" s="20"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="22"/>
+        <v>473</v>
+      </c>
+      <c r="R29" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="S29" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="T29" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="U29" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="V29" s="22" t="s">
+        <v>478</v>
+      </c>
       <c r="W29" s="1"/>
     </row>
     <row r="30">
@@ -2308,125 +4488,199 @@
       <c r="B30" s="23">
         <v>26.0</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
+      <c r="C30" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>484</v>
+      </c>
       <c r="I30" s="23">
         <v>26.0</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="27"/>
+        <v>485</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="N30" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>490</v>
+      </c>
       <c r="P30" s="23">
         <v>26.0</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="R30" s="25"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="27"/>
+        <v>491</v>
+      </c>
+      <c r="R30" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="S30" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="T30" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="U30" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="V30" s="27" t="s">
+        <v>496</v>
+      </c>
       <c r="W30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="32"/>
+      <c r="B31" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="N31" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="O31" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="R31" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="S31" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="T31" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="U31" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="V31" s="32" t="s">
+        <v>515</v>
+      </c>
       <c r="W31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1"/>
       <c r="B32" s="33" t="s">
-        <v>62</v>
+        <v>516</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>63</v>
+        <v>517</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>64</v>
+        <v>518</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>65</v>
+        <v>519</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>66</v>
+        <v>520</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>67</v>
+        <v>521</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>68</v>
+        <v>522</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>62</v>
+        <v>516</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>63</v>
+        <v>517</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>64</v>
+        <v>518</v>
       </c>
       <c r="L32" s="34" t="s">
-        <v>65</v>
+        <v>519</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>66</v>
+        <v>520</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>67</v>
+        <v>521</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>68</v>
+        <v>522</v>
       </c>
       <c r="P32" s="33" t="s">
-        <v>62</v>
+        <v>516</v>
       </c>
       <c r="Q32" s="34" t="s">
-        <v>63</v>
+        <v>517</v>
       </c>
       <c r="R32" s="34" t="s">
-        <v>64</v>
+        <v>518</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>65</v>
+        <v>519</v>
       </c>
       <c r="T32" s="34" t="s">
-        <v>66</v>
+        <v>520</v>
       </c>
       <c r="U32" s="34" t="s">
-        <v>67</v>
+        <v>521</v>
       </c>
       <c r="V32" s="35" t="s">
-        <v>68</v>
+        <v>522</v>
       </c>
       <c r="W32" s="1"/>
     </row>
@@ -2443,7 +4697,7 @@
     <row r="34">
       <c r="A34" s="36"/>
       <c r="B34" s="37" t="s">
-        <v>69</v>
+        <v>523</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -2459,7 +4713,7 @@
       <c r="N34" s="39"/>
       <c r="O34" s="39"/>
       <c r="P34" s="37" t="s">
-        <v>70</v>
+        <v>524</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
@@ -2501,7 +4755,7 @@
     <row r="36">
       <c r="A36" s="36"/>
       <c r="B36" s="42" t="s">
-        <v>71</v>
+        <v>525</v>
       </c>
       <c r="C36" s="43" t="s">
         <v>4</v>
@@ -2519,7 +4773,7 @@
       <c r="N36" s="39"/>
       <c r="O36" s="39"/>
       <c r="P36" s="42" t="s">
-        <v>72</v>
+        <v>454</v>
       </c>
       <c r="Q36" s="43" t="s">
         <v>4</v>
@@ -2534,10 +4788,10 @@
     <row r="37">
       <c r="A37" s="36"/>
       <c r="B37" s="44" t="s">
-        <v>73</v>
+        <v>526</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>74</v>
+        <v>527</v>
       </c>
       <c r="D37" s="43" t="s">
         <v>5</v>
@@ -2554,10 +4808,10 @@
       <c r="N37" s="39"/>
       <c r="O37" s="39"/>
       <c r="P37" s="44" t="s">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="Q37" s="45" t="s">
-        <v>76</v>
+        <v>528</v>
       </c>
       <c r="R37" s="43" t="s">
         <v>5</v>
@@ -2571,13 +4825,13 @@
     <row r="38">
       <c r="A38" s="36"/>
       <c r="B38" s="44" t="s">
-        <v>77</v>
+        <v>529</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="E38" s="43" t="s">
         <v>6</v>
@@ -2593,13 +4847,13 @@
       <c r="N38" s="39"/>
       <c r="O38" s="39"/>
       <c r="P38" s="44" t="s">
-        <v>80</v>
+        <v>531</v>
       </c>
       <c r="Q38" s="46" t="s">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="R38" s="45" t="s">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="S38" s="43" t="s">
         <v>6</v>
@@ -2612,16 +4866,16 @@
     <row r="39">
       <c r="A39" s="36"/>
       <c r="B39" s="44" t="s">
-        <v>83</v>
+        <v>534</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>84</v>
+        <v>535</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>85</v>
+        <v>536</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>86</v>
+        <v>537</v>
       </c>
       <c r="F39" s="43" t="s">
         <v>7</v>
@@ -2636,16 +4890,16 @@
       <c r="N39" s="39"/>
       <c r="O39" s="39"/>
       <c r="P39" s="44" t="s">
-        <v>87</v>
+        <v>538</v>
       </c>
       <c r="Q39" s="46" t="s">
-        <v>88</v>
+        <v>539</v>
       </c>
       <c r="R39" s="47" t="s">
-        <v>89</v>
+        <v>540</v>
       </c>
       <c r="S39" s="45" t="s">
-        <v>90</v>
+        <v>541</v>
       </c>
       <c r="T39" s="43" t="s">
         <v>7</v>
@@ -2657,19 +4911,19 @@
     <row r="40">
       <c r="A40" s="36"/>
       <c r="B40" s="44" t="s">
-        <v>91</v>
+        <v>542</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>92</v>
+        <v>543</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>93</v>
+        <v>544</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>94</v>
+        <v>545</v>
       </c>
       <c r="F40" s="49" t="s">
-        <v>95</v>
+        <v>546</v>
       </c>
       <c r="G40" s="43" t="s">
         <v>8</v>
@@ -2683,19 +4937,19 @@
       <c r="N40" s="39"/>
       <c r="O40" s="39"/>
       <c r="P40" s="44" t="s">
-        <v>96</v>
+        <v>547</v>
       </c>
       <c r="Q40" s="46" t="s">
-        <v>97</v>
+        <v>548</v>
       </c>
       <c r="R40" s="47" t="s">
-        <v>98</v>
+        <v>549</v>
       </c>
       <c r="S40" s="49" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="T40" s="49" t="s">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="U40" s="43" t="s">
         <v>8</v>
@@ -2706,22 +4960,22 @@
     <row r="41">
       <c r="A41" s="36"/>
       <c r="B41" s="44" t="s">
-        <v>101</v>
+        <v>551</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>102</v>
+        <v>552</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>103</v>
+        <v>553</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>104</v>
+        <v>554</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="G41" s="49" t="s">
-        <v>106</v>
+        <v>555</v>
       </c>
       <c r="H41" s="43" t="s">
         <v>9</v>
@@ -2734,22 +4988,22 @@
       <c r="N41" s="39"/>
       <c r="O41" s="39"/>
       <c r="P41" s="44" t="s">
-        <v>107</v>
+        <v>556</v>
       </c>
       <c r="Q41" s="46" t="s">
-        <v>108</v>
+        <v>557</v>
       </c>
       <c r="R41" s="47" t="s">
-        <v>109</v>
+        <v>558</v>
       </c>
       <c r="S41" s="49" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="T41" s="49" t="s">
-        <v>111</v>
+        <v>559</v>
       </c>
       <c r="U41" s="49" t="s">
-        <v>112</v>
+        <v>560</v>
       </c>
       <c r="V41" s="43" t="s">
         <v>9</v>
@@ -2759,25 +5013,25 @@
     <row r="42">
       <c r="A42" s="36"/>
       <c r="B42" s="50" t="s">
-        <v>113</v>
+        <v>561</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>114</v>
+        <v>562</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>115</v>
+        <v>563</v>
       </c>
       <c r="E42" s="53" t="s">
-        <v>116</v>
+        <v>231</v>
       </c>
       <c r="F42" s="48" t="s">
-        <v>117</v>
+        <v>564</v>
       </c>
       <c r="G42" s="53" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="H42" s="54" t="s">
-        <v>119</v>
+        <v>565</v>
       </c>
       <c r="I42" s="48"/>
       <c r="J42" s="39"/>
@@ -2787,50 +5041,50 @@
       <c r="N42" s="39"/>
       <c r="O42" s="39"/>
       <c r="P42" s="50" t="s">
-        <v>120</v>
+        <v>566</v>
       </c>
       <c r="Q42" s="51" t="s">
-        <v>121</v>
+        <v>567</v>
       </c>
       <c r="R42" s="52" t="s">
-        <v>122</v>
+        <v>568</v>
       </c>
       <c r="S42" s="53" t="s">
-        <v>123</v>
+        <v>569</v>
       </c>
       <c r="T42" s="48" t="s">
-        <v>124</v>
+        <v>570</v>
       </c>
       <c r="U42" s="53" t="s">
-        <v>125</v>
+        <v>571</v>
       </c>
       <c r="V42" s="54" t="s">
-        <v>126</v>
+        <v>572</v>
       </c>
       <c r="W42" s="36"/>
     </row>
     <row r="43">
       <c r="A43" s="36"/>
       <c r="B43" s="55" t="s">
-        <v>62</v>
+        <v>516</v>
       </c>
       <c r="C43" s="56" t="s">
-        <v>63</v>
+        <v>517</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>64</v>
+        <v>518</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>65</v>
+        <v>519</v>
       </c>
       <c r="F43" s="56" t="s">
-        <v>66</v>
+        <v>520</v>
       </c>
       <c r="G43" s="56" t="s">
-        <v>67</v>
+        <v>521</v>
       </c>
       <c r="H43" s="57" t="s">
-        <v>68</v>
+        <v>522</v>
       </c>
       <c r="I43" s="39"/>
       <c r="J43" s="39"/>
@@ -2840,25 +5094,25 @@
       <c r="N43" s="39"/>
       <c r="O43" s="39"/>
       <c r="P43" s="55" t="s">
-        <v>62</v>
+        <v>516</v>
       </c>
       <c r="Q43" s="56" t="s">
-        <v>63</v>
+        <v>517</v>
       </c>
       <c r="R43" s="56" t="s">
-        <v>64</v>
+        <v>518</v>
       </c>
       <c r="S43" s="56" t="s">
-        <v>65</v>
+        <v>519</v>
       </c>
       <c r="T43" s="56" t="s">
-        <v>66</v>
+        <v>520</v>
       </c>
       <c r="U43" s="56" t="s">
-        <v>67</v>
+        <v>521</v>
       </c>
       <c r="V43" s="57" t="s">
-        <v>68</v>
+        <v>522</v>
       </c>
       <c r="W43" s="36"/>
     </row>

--- a/waves20/waves20.xlsx
+++ b/waves20/waves20.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="574">
   <si>
     <t>audio19</t>
   </si>
@@ -43,1564 +43,1567 @@
     <t>Example</t>
   </si>
   <si>
-    <t>stack</t>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Transform</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>lens</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>Preserve</t>
+  </si>
+  <si>
+    <t>advance</t>
+  </si>
+  <si>
+    <t>cascade</t>
+  </si>
+  <si>
+    <t>boundary</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>noon</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>Dressing</t>
+  </si>
+  <si>
+    <t>skeleton</t>
+  </si>
+  <si>
+    <t>earn</t>
+  </si>
+  <si>
+    <t>tube</t>
+  </si>
+  <si>
+    <t>cone</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>preference</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>Marketplace</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>basket</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>nourish</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>Melody</t>
+  </si>
+  <si>
+    <t>nerve</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>trace</t>
+  </si>
+  <si>
+    <t>cabin</t>
+  </si>
+  <si>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>territory</t>
+  </si>
+  <si>
+    <t>cube</t>
+  </si>
+  <si>
+    <t>Media Centre</t>
+  </si>
+  <si>
+    <t>ace</t>
+  </si>
+  <si>
+    <t>giant</t>
+  </si>
+  <si>
+    <t>vitamin</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>Cinematograph</t>
+  </si>
+  <si>
+    <t>palm</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>slate</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>Contest</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>streamline</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>finite</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>Studio</t>
+  </si>
+  <si>
+    <t>candle</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>boil</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>ideal</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>forehead</t>
+  </si>
+  <si>
+    <t>micro</t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>Bulletin</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>mechanic</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>afloat</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>crop</t>
+  </si>
+  <si>
+    <t>bundle</t>
+  </si>
+  <si>
+    <t>tweet</t>
+  </si>
+  <si>
+    <t>Dubbing</t>
+  </si>
+  <si>
+    <t>retina</t>
+  </si>
+  <si>
+    <t>pilot</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>orbit</t>
+  </si>
+  <si>
+    <t>prototype</t>
+  </si>
+  <si>
+    <t>waterfall</t>
+  </si>
+  <si>
+    <t>blink</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>compute</t>
+  </si>
+  <si>
+    <t>mineral</t>
+  </si>
+  <si>
+    <t>vault</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>Ceremony</t>
+  </si>
+  <si>
+    <t>spin</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>alternate</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>exist</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>brow</t>
+  </si>
+  <si>
+    <t>scheme</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>Reception</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>opposite</t>
+  </si>
+  <si>
+    <t>sine</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>clone</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>shine</t>
+  </si>
+  <si>
+    <t>Chartbuster</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>torque</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>inverse</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>essay</t>
+  </si>
+  <si>
+    <t>arrow</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t>spine</t>
+  </si>
+  <si>
+    <t>badge</t>
+  </si>
+  <si>
+    <t>slab</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>Telemarketing</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>Fibonacci</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>lean</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>cereal</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>rib</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>Documentary</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>scrutiny</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>Greenhouse</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
+    <t>matter</t>
+  </si>
+  <si>
+    <t>notion</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>Mythology</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>collage</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>segment</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>multiplex</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>Filming</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>bracket</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>pitch</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>marble</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>Federation</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>aisle</t>
+  </si>
+  <si>
+    <t>starch</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>drum</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>mole</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>witness</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>sponsor</t>
+  </si>
+  <si>
+    <t>cyber</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>laminate</t>
+  </si>
+  <si>
+    <t>Premier</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>calcium</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>Telemetry</t>
+  </si>
+  <si>
+    <t>transparent</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>directory</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>paragraph</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>equation</t>
+  </si>
+  <si>
+    <t>Film Star</t>
+  </si>
+  <si>
+    <t>appoint</t>
+  </si>
+  <si>
+    <t>stall</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>Theatre</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>century</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>parity</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>align</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>finger</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>clutch</t>
+  </si>
+  <si>
+    <t>Filmset</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>tender</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Excursion</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>gather</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Council</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>foil</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>Photograph</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>deal</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>fiction</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>Stereoscopic</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>committee</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <t>mat</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>gear</t>
+  </si>
+  <si>
+    <t>collar</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>Surround</t>
+  </si>
+  <si>
+    <t>disc</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>dash</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>appendix</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>Curriculum</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>cron</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>crust</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>organ</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>Concert</t>
+  </si>
+  <si>
+    <t>vessel</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>Decorum</t>
+  </si>
+  <si>
+    <t>lift</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>fold</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>leap</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>rent</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>leak</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>logic</t>
+  </si>
+  <si>
+    <t>relay</t>
+  </si>
+  <si>
+    <t>tangle</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>Infantry</t>
+  </si>
+  <si>
+    <t>scent</t>
+  </si>
+  <si>
+    <t>pole</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>Episode</t>
+  </si>
+  <si>
+    <t>recent</t>
+  </si>
+  <si>
+    <t>compact</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>Pantry</t>
+  </si>
+  <si>
+    <t>deodorant</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>wrap</t>
+  </si>
+  <si>
+    <t>wide</t>
+  </si>
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>Academia</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>metro</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>Electronic</t>
+  </si>
+  <si>
+    <t>texture</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>mesh</t>
+  </si>
+  <si>
+    <t>legal</t>
+  </si>
+  <si>
+    <t>nest</t>
+  </si>
+  <si>
+    <t>Compose</t>
+  </si>
+  <si>
+    <t>thirst</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>blaze</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>Blogging</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>thrust</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>native</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>haystack</t>
+  </si>
+  <si>
+    <t>refer</t>
+  </si>
+  <si>
+    <t>genus</t>
+  </si>
+  <si>
+    <t>Choreograph</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>pulse</t>
+  </si>
+  <si>
+    <t>sight</t>
+  </si>
+  <si>
+    <t>Horror</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>processor</t>
+  </si>
+  <si>
+    <t>ink</t>
+  </si>
+  <si>
+    <t>dedicate</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>alien</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>sphere</t>
+  </si>
+  <si>
+    <t>Academy</t>
+  </si>
+  <si>
+    <t>bent</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>shuffle</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>Climate</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>flux</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>scene</t>
+  </si>
+  <si>
+    <t>Contemporary</t>
+  </si>
+  <si>
+    <t>vibrant</t>
+  </si>
+  <si>
+    <t>admit</t>
+  </si>
+  <si>
+    <t>aid</t>
+  </si>
+  <si>
+    <t>stamp</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>Science Fiction</t>
+  </si>
+  <si>
+    <t>valve</t>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>aerodynamic</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>slip</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Heritage</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>carnival</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>Dynasty</t>
+  </si>
+  <si>
+    <t>adventure</t>
+  </si>
+  <si>
+    <t>carrier</t>
+  </si>
+  <si>
+    <t>boarding</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>Palace</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>stretch</t>
+  </si>
+  <si>
+    <t>hill</t>
+  </si>
+  <si>
+    <t>plateau</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>Divisor</t>
+  </si>
+  <si>
+    <t>Derivative</t>
+  </si>
+  <si>
+    <t>Dividend</t>
+  </si>
+  <si>
+    <t>Quotient</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Remainder</t>
+  </si>
+  <si>
+    <t>world26</t>
+  </si>
+  <si>
+    <t>summit26</t>
+  </si>
+  <si>
+    <t>hub</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>court</t>
   </si>
   <si>
     <t>line</t>
-  </si>
-  <si>
-    <t>session</t>
-  </si>
-  <si>
-    <t>lens</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>program</t>
-  </si>
-  <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>phase</t>
-  </si>
-  <si>
-    <t>advance</t>
-  </si>
-  <si>
-    <t>cascade</t>
-  </si>
-  <si>
-    <t>boundary</t>
-  </si>
-  <si>
-    <t>magazine</t>
-  </si>
-  <si>
-    <t>journal</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>morning</t>
-  </si>
-  <si>
-    <t>noon</t>
-  </si>
-  <si>
-    <t>evening</t>
-  </si>
-  <si>
-    <t>night</t>
-  </si>
-  <si>
-    <t>Dressing</t>
-  </si>
-  <si>
-    <t>skeleton</t>
-  </si>
-  <si>
-    <t>earn</t>
-  </si>
-  <si>
-    <t>tube</t>
-  </si>
-  <si>
-    <t>cone</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>Picture</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>preference</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>economy</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>Marketplace</t>
-  </si>
-  <si>
-    <t>mushroom</t>
-  </si>
-  <si>
-    <t>basket</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>nourish</t>
-  </si>
-  <si>
-    <t>manual</t>
-  </si>
-  <si>
-    <t>Melody</t>
-  </si>
-  <si>
-    <t>nerve</t>
-  </si>
-  <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t>cap</t>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t>cabin</t>
-  </si>
-  <si>
-    <t>Film</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>portfolio</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>territory</t>
-  </si>
-  <si>
-    <t>cube</t>
-  </si>
-  <si>
-    <t>Media Centre</t>
-  </si>
-  <si>
-    <t>ace</t>
-  </si>
-  <si>
-    <t>giant</t>
-  </si>
-  <si>
-    <t>vitamin</t>
-  </si>
-  <si>
-    <t>cloud</t>
-  </si>
-  <si>
-    <t>solid</t>
-  </si>
-  <si>
-    <t>Cinematograph</t>
-  </si>
-  <si>
-    <t>palm</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>channel</t>
-  </si>
-  <si>
-    <t>slate</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>Contest</t>
-  </si>
-  <si>
-    <t>policy</t>
-  </si>
-  <si>
-    <t>streamline</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>finite</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>Studio</t>
-  </si>
-  <si>
-    <t>candle</t>
-  </si>
-  <si>
-    <t>bar</t>
-  </si>
-  <si>
-    <t>boil</t>
-  </si>
-  <si>
-    <t>tip</t>
-  </si>
-  <si>
-    <t>ideal</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>forehead</t>
-  </si>
-  <si>
-    <t>micro</t>
-  </si>
-  <si>
-    <t>cloth</t>
-  </si>
-  <si>
-    <t>draw</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>Bulletin</t>
-  </si>
-  <si>
-    <t>foreign</t>
-  </si>
-  <si>
-    <t>mechanic</t>
-  </si>
-  <si>
-    <t>river</t>
-  </si>
-  <si>
-    <t>afloat</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>copy</t>
-  </si>
-  <si>
-    <t>crop</t>
-  </si>
-  <si>
-    <t>bundle</t>
-  </si>
-  <si>
-    <t>tweet</t>
-  </si>
-  <si>
-    <t>Dubbing</t>
-  </si>
-  <si>
-    <t>retina</t>
-  </si>
-  <si>
-    <t>pilot</t>
-  </si>
-  <si>
-    <t>plate</t>
-  </si>
-  <si>
-    <t>instance</t>
-  </si>
-  <si>
-    <t>jump</t>
-  </si>
-  <si>
-    <t>Promotion</t>
-  </si>
-  <si>
-    <t>orbit</t>
-  </si>
-  <si>
-    <t>prototype</t>
-  </si>
-  <si>
-    <t>waterfall</t>
-  </si>
-  <si>
-    <t>blink</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>hook</t>
-  </si>
-  <si>
-    <t>compute</t>
-  </si>
-  <si>
-    <t>mineral</t>
-  </si>
-  <si>
-    <t>vault</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>skin</t>
-  </si>
-  <si>
-    <t>engine</t>
-  </si>
-  <si>
-    <t>pack</t>
-  </si>
-  <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t>serial</t>
-  </si>
-  <si>
-    <t>Ceremony</t>
-  </si>
-  <si>
-    <t>spin</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>stone</t>
-  </si>
-  <si>
-    <t>alternate</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>wall</t>
-  </si>
-  <si>
-    <t>exist</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>bag</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>Series</t>
-  </si>
-  <si>
-    <t>brow</t>
-  </si>
-  <si>
-    <t>scheme</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>ship</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>Reception</t>
-  </si>
-  <si>
-    <t>wave</t>
-  </si>
-  <si>
-    <t>theme</t>
-  </si>
-  <si>
-    <t>spark</t>
-  </si>
-  <si>
-    <t>opposite</t>
-  </si>
-  <si>
-    <t>sine</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
-    <t>query</t>
-  </si>
-  <si>
-    <t>clone</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>carbon</t>
-  </si>
-  <si>
-    <t>shine</t>
-  </si>
-  <si>
-    <t>Chartbuster</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>dry</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>Conference</t>
-  </si>
-  <si>
-    <t>torque</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>nation</t>
-  </si>
-  <si>
-    <t>inverse</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>Generation</t>
-  </si>
-  <si>
-    <t>essay</t>
-  </si>
-  <si>
-    <t>arrow</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>Trailer</t>
-  </si>
-  <si>
-    <t>spine</t>
-  </si>
-  <si>
-    <t>badge</t>
-  </si>
-  <si>
-    <t>slab</t>
-  </si>
-  <si>
-    <t>coin</t>
-  </si>
-  <si>
-    <t>lamp</t>
-  </si>
-  <si>
-    <t>Telemarketing</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>Fibonacci</t>
-  </si>
-  <si>
-    <t>nuclear</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>lean</t>
-  </si>
-  <si>
-    <t>Access</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>calendar</t>
-  </si>
-  <si>
-    <t>cereal</t>
-  </si>
-  <si>
-    <t>coupon</t>
-  </si>
-  <si>
-    <t>shell</t>
-  </si>
-  <si>
-    <t>Broadcast</t>
-  </si>
-  <si>
-    <t>rib</t>
-  </si>
-  <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>pen</t>
-  </si>
-  <si>
-    <t>ring</t>
-  </si>
-  <si>
-    <t>guide</t>
-  </si>
-  <si>
-    <t>Documentary</t>
-  </si>
-  <si>
-    <t>vector</t>
-  </si>
-  <si>
-    <t>scrutiny</t>
-  </si>
-  <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>Administration</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>sugar</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>Greenhouse</t>
-  </si>
-  <si>
-    <t>nail</t>
-  </si>
-  <si>
-    <t>poll</t>
-  </si>
-  <si>
-    <t>matter</t>
-  </si>
-  <si>
-    <t>notion</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>Mythology</t>
-  </si>
-  <si>
-    <t>fraction</t>
-  </si>
-  <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t>collage</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>segment</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
-    <t>multiplex</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>chocolate</t>
-  </si>
-  <si>
-    <t>joint</t>
-  </si>
-  <si>
-    <t>screen</t>
-  </si>
-  <si>
-    <t>Filming</t>
-  </si>
-  <si>
-    <t>hair</t>
-  </si>
-  <si>
-    <t>bracket</t>
-  </si>
-  <si>
-    <t>epic</t>
-  </si>
-  <si>
-    <t>pitch</t>
-  </si>
-  <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>Drama</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>marble</t>
-  </si>
-  <si>
-    <t>bright</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>Federation</t>
-  </si>
-  <si>
-    <t>colour</t>
-  </si>
-  <si>
-    <t>aisle</t>
-  </si>
-  <si>
-    <t>starch</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>drum</t>
-  </si>
-  <si>
-    <t>Interval</t>
-  </si>
-  <si>
-    <t>mole</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>witness</t>
-  </si>
-  <si>
-    <t>deposit</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>Regulatory</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>sponsor</t>
-  </si>
-  <si>
-    <t>cyber</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>laminate</t>
-  </si>
-  <si>
-    <t>Premier</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>calcium</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>Telemetry</t>
-  </si>
-  <si>
-    <t>transparent</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>tongue</t>
-  </si>
-  <si>
-    <t>voucher</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>Assignment</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>quarter</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>directory</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>Creator</t>
-  </si>
-  <si>
-    <t>paragraph</t>
-  </si>
-  <si>
-    <t>dictionary</t>
-  </si>
-  <si>
-    <t>memory</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>equation</t>
-  </si>
-  <si>
-    <t>Film Star</t>
-  </si>
-  <si>
-    <t>appoint</t>
-  </si>
-  <si>
-    <t>stall</t>
-  </si>
-  <si>
-    <t>release</t>
-  </si>
-  <si>
-    <t>shield</t>
-  </si>
-  <si>
-    <t>party</t>
-  </si>
-  <si>
-    <t>Theatre</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>assembly</t>
-  </si>
-  <si>
-    <t>century</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>parity</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>align</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>finger</t>
-  </si>
-  <si>
-    <t>audit</t>
-  </si>
-  <si>
-    <t>clutch</t>
-  </si>
-  <si>
-    <t>Filmset</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>tender</t>
-  </si>
-  <si>
-    <t>bot</t>
-  </si>
-  <si>
-    <t>track</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Excursion</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>gather</t>
-  </si>
-  <si>
-    <t>character</t>
-  </si>
-  <si>
-    <t>spread</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>Council</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>foil</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>panel</t>
-  </si>
-  <si>
-    <t>Photograph</t>
-  </si>
-  <si>
-    <t>mass</t>
-  </si>
-  <si>
-    <t>deal</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>fiction</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>Stereoscopic</t>
-  </si>
-  <si>
-    <t>matrix</t>
-  </si>
-  <si>
-    <t>committee</t>
-  </si>
-  <si>
-    <t>civil</t>
-  </si>
-  <si>
-    <t>bind</t>
-  </si>
-  <si>
-    <t>mat</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>catch</t>
-  </si>
-  <si>
-    <t>gear</t>
-  </si>
-  <si>
-    <t>collar</t>
-  </si>
-  <si>
-    <t>instrument</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>Surround</t>
-  </si>
-  <si>
-    <t>disc</t>
-  </si>
-  <si>
-    <t>angle</t>
-  </si>
-  <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>dash</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>Animation</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>compound</t>
-  </si>
-  <si>
-    <t>pattern</t>
-  </si>
-  <si>
-    <t>appendix</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>Curriculum</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>cron</t>
-  </si>
-  <si>
-    <t>ticket</t>
-  </si>
-  <si>
-    <t>crust</t>
-  </si>
-  <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>guest</t>
-  </si>
-  <si>
-    <t>standard</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>organ</t>
-  </si>
-  <si>
-    <t>Regional</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>frequency</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>Concert</t>
-  </si>
-  <si>
-    <t>vessel</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>algorithm</t>
-  </si>
-  <si>
-    <t>rotate</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>Decorum</t>
-  </si>
-  <si>
-    <t>lift</t>
-  </si>
-  <si>
-    <t>agent</t>
-  </si>
-  <si>
-    <t>fold</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>leap</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>rent</t>
-  </si>
-  <si>
-    <t>temporary</t>
-  </si>
-  <si>
-    <t>thumbnail</t>
-  </si>
-  <si>
-    <t>neutral</t>
-  </si>
-  <si>
-    <t>leak</t>
-  </si>
-  <si>
-    <t>Artist</t>
-  </si>
-  <si>
-    <t>logic</t>
-  </si>
-  <si>
-    <t>relay</t>
-  </si>
-  <si>
-    <t>tangle</t>
-  </si>
-  <si>
-    <t>switch</t>
-  </si>
-  <si>
-    <t>board</t>
-  </si>
-  <si>
-    <t>Infantry</t>
-  </si>
-  <si>
-    <t>scent</t>
-  </si>
-  <si>
-    <t>pole</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>Episode</t>
-  </si>
-  <si>
-    <t>recent</t>
-  </si>
-  <si>
-    <t>compact</t>
-  </si>
-  <si>
-    <t>structure</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>ground</t>
-  </si>
-  <si>
-    <t>Pantry</t>
-  </si>
-  <si>
-    <t>deodorant</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>wrap</t>
-  </si>
-  <si>
-    <t>wide</t>
-  </si>
-  <si>
-    <t>contrast</t>
-  </si>
-  <si>
-    <t>Academia</t>
-  </si>
-  <si>
-    <t>distinct</t>
-  </si>
-  <si>
-    <t>generic</t>
-  </si>
-  <si>
-    <t>metro</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>Electronic</t>
-  </si>
-  <si>
-    <t>texture</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>mesh</t>
-  </si>
-  <si>
-    <t>legal</t>
-  </si>
-  <si>
-    <t>nest</t>
-  </si>
-  <si>
-    <t>Compose</t>
-  </si>
-  <si>
-    <t>thirst</t>
-  </si>
-  <si>
-    <t>chair</t>
-  </si>
-  <si>
-    <t>mail</t>
-  </si>
-  <si>
-    <t>blaze</t>
-  </si>
-  <si>
-    <t>try</t>
-  </si>
-  <si>
-    <t>Blogging</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>flat</t>
-  </si>
-  <si>
-    <t>public</t>
-  </si>
-  <si>
-    <t>thrust</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>native</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>haystack</t>
-  </si>
-  <si>
-    <t>refer</t>
-  </si>
-  <si>
-    <t>genus</t>
-  </si>
-  <si>
-    <t>Choreograph</t>
-  </si>
-  <si>
-    <t>wet</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>mix</t>
-  </si>
-  <si>
-    <t>pulse</t>
-  </si>
-  <si>
-    <t>sight</t>
-  </si>
-  <si>
-    <t>Horror</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>processor</t>
-  </si>
-  <si>
-    <t>ink</t>
-  </si>
-  <si>
-    <t>dedicate</t>
-  </si>
-  <si>
-    <t>slide</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t>alien</t>
-  </si>
-  <si>
-    <t>plain</t>
-  </si>
-  <si>
-    <t>blast</t>
-  </si>
-  <si>
-    <t>connect</t>
-  </si>
-  <si>
-    <t>sphere</t>
-  </si>
-  <si>
-    <t>Academy</t>
-  </si>
-  <si>
-    <t>bent</t>
-  </si>
-  <si>
-    <t>idea</t>
-  </si>
-  <si>
-    <t>shuffle</t>
-  </si>
-  <si>
-    <t>abstract</t>
-  </si>
-  <si>
-    <t>boat</t>
-  </si>
-  <si>
-    <t>Climate</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>designation</t>
-  </si>
-  <si>
-    <t>pad</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>Movie</t>
-  </si>
-  <si>
-    <t>raw</t>
-  </si>
-  <si>
-    <t>grow</t>
-  </si>
-  <si>
-    <t>flux</t>
-  </si>
-  <si>
-    <t>core</t>
-  </si>
-  <si>
-    <t>scene</t>
-  </si>
-  <si>
-    <t>Contemporary</t>
-  </si>
-  <si>
-    <t>vibrant</t>
-  </si>
-  <si>
-    <t>admit</t>
-  </si>
-  <si>
-    <t>aid</t>
-  </si>
-  <si>
-    <t>stamp</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>Science Fiction</t>
-  </si>
-  <si>
-    <t>valve</t>
-  </si>
-  <si>
-    <t>configuration</t>
-  </si>
-  <si>
-    <t>trim</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>variety</t>
-  </si>
-  <si>
-    <t>Opera</t>
-  </si>
-  <si>
-    <t>aerodynamic</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>slip</t>
-  </si>
-  <si>
-    <t>queue</t>
-  </si>
-  <si>
-    <t>ball</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>carnival</t>
-  </si>
-  <si>
-    <t>weather</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>bat</t>
-  </si>
-  <si>
-    <t>adventure</t>
-  </si>
-  <si>
-    <t>carrier</t>
-  </si>
-  <si>
-    <t>boarding</t>
-  </si>
-  <si>
-    <t>magic</t>
-  </si>
-  <si>
-    <t>journey</t>
-  </si>
-  <si>
-    <t>wicket</t>
-  </si>
-  <si>
-    <t>mountain</t>
-  </si>
-  <si>
-    <t>stretch</t>
-  </si>
-  <si>
-    <t>hill</t>
-  </si>
-  <si>
-    <t>plateau</t>
-  </si>
-  <si>
-    <t>sea</t>
-  </si>
-  <si>
-    <t>Divisor</t>
-  </si>
-  <si>
-    <t>Derivative</t>
-  </si>
-  <si>
-    <t>Dividend</t>
-  </si>
-  <si>
-    <t>Quotient</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>Remainder</t>
-  </si>
-  <si>
-    <t>world26</t>
-  </si>
-  <si>
-    <t>summit26</t>
-  </si>
-  <si>
-    <t>hub</t>
-  </si>
-  <si>
-    <t>space</t>
-  </si>
-  <si>
-    <t>case</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>court</t>
   </si>
   <si>
     <t>curve</t>
@@ -4828,10 +4831,10 @@
         <v>529</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>11</v>
+        <v>530</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E38" s="43" t="s">
         <v>6</v>
@@ -4847,13 +4850,13 @@
       <c r="N38" s="39"/>
       <c r="O38" s="39"/>
       <c r="P38" s="44" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q38" s="46" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="R38" s="45" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="S38" s="43" t="s">
         <v>6</v>
@@ -4866,16 +4869,16 @@
     <row r="39">
       <c r="A39" s="36"/>
       <c r="B39" s="44" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F39" s="43" t="s">
         <v>7</v>
@@ -4890,16 +4893,16 @@
       <c r="N39" s="39"/>
       <c r="O39" s="39"/>
       <c r="P39" s="44" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q39" s="46" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="R39" s="47" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="S39" s="45" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="T39" s="43" t="s">
         <v>7</v>
@@ -4911,19 +4914,19 @@
     <row r="40">
       <c r="A40" s="36"/>
       <c r="B40" s="44" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F40" s="49" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G40" s="43" t="s">
         <v>8</v>
@@ -4937,19 +4940,19 @@
       <c r="N40" s="39"/>
       <c r="O40" s="39"/>
       <c r="P40" s="44" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q40" s="46" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="R40" s="47" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="S40" s="49" t="s">
         <v>16</v>
       </c>
       <c r="T40" s="49" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="U40" s="43" t="s">
         <v>8</v>
@@ -4960,22 +4963,22 @@
     <row r="41">
       <c r="A41" s="36"/>
       <c r="B41" s="44" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F41" s="49" t="s">
         <v>79</v>
       </c>
       <c r="G41" s="49" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H41" s="43" t="s">
         <v>9</v>
@@ -4988,22 +4991,22 @@
       <c r="N41" s="39"/>
       <c r="O41" s="39"/>
       <c r="P41" s="44" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q41" s="46" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="R41" s="47" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="S41" s="49" t="s">
         <v>262</v>
       </c>
       <c r="T41" s="49" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="U41" s="49" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="V41" s="43" t="s">
         <v>9</v>
@@ -5013,25 +5016,25 @@
     <row r="42">
       <c r="A42" s="36"/>
       <c r="B42" s="50" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E42" s="53" t="s">
         <v>231</v>
       </c>
       <c r="F42" s="48" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G42" s="53" t="s">
         <v>201</v>
       </c>
       <c r="H42" s="54" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I42" s="48"/>
       <c r="J42" s="39"/>
@@ -5041,25 +5044,25 @@
       <c r="N42" s="39"/>
       <c r="O42" s="39"/>
       <c r="P42" s="50" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Q42" s="51" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="R42" s="52" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="S42" s="53" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="T42" s="48" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="U42" s="53" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="V42" s="54" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="W42" s="36"/>
     </row>

--- a/waves20/waves20.xlsx
+++ b/waves20/waves20.xlsx
@@ -1780,8 +1780,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC4125"/>
-        <bgColor rgb="FFCC4125"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>

--- a/waves20/waves20.xlsx
+++ b/waves20/waves20.xlsx
@@ -1739,21 +1739,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -2225,7 +2214,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2332,66 +2321,65 @@
     <xf borderId="32" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="33" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="38" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="38" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="39" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="39" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="40" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="40" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="32" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2621,7 +2609,7 @@
     <col customWidth="1" min="23" max="23" width="2.75"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -2646,7 +2634,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -2677,7 +2665,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -2744,7 +2732,7 @@
       </c>
       <c r="W3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
@@ -2811,7 +2799,7 @@
       </c>
       <c r="W4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="13">
         <v>1.0</v>
@@ -2878,7 +2866,7 @@
       </c>
       <c r="W5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="18">
         <v>2.0</v>
@@ -2945,7 +2933,7 @@
       </c>
       <c r="W6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="18">
         <v>3.0</v>
@@ -3012,7 +3000,7 @@
       </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="18">
         <v>4.0</v>
@@ -3079,7 +3067,7 @@
       </c>
       <c r="W8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="18">
         <v>5.0</v>
@@ -3146,7 +3134,7 @@
       </c>
       <c r="W9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="18">
         <v>6.0</v>
@@ -3213,7 +3201,7 @@
       </c>
       <c r="W10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="18">
         <v>7.0</v>
@@ -3280,7 +3268,7 @@
       </c>
       <c r="W11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="18">
         <v>8.0</v>
@@ -3347,7 +3335,7 @@
       </c>
       <c r="W12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="18">
         <v>9.0</v>
@@ -3414,7 +3402,7 @@
       </c>
       <c r="W13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="18">
         <v>10.0</v>
@@ -3481,7 +3469,7 @@
       </c>
       <c r="W14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="18">
         <v>11.0</v>
@@ -3548,7 +3536,7 @@
       </c>
       <c r="W15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="18">
         <v>12.0</v>
@@ -3615,7 +3603,7 @@
       </c>
       <c r="W16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="18">
         <v>13.0</v>
@@ -3682,7 +3670,7 @@
       </c>
       <c r="W17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="18">
         <v>14.0</v>
@@ -3749,7 +3737,7 @@
       </c>
       <c r="W18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="18">
         <v>15.0</v>
@@ -3816,7 +3804,7 @@
       </c>
       <c r="W19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="18">
         <v>16.0</v>
@@ -3883,7 +3871,7 @@
       </c>
       <c r="W20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="18">
         <v>17.0</v>
@@ -3950,7 +3938,7 @@
       </c>
       <c r="W21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="18">
         <v>18.0</v>
@@ -4017,7 +4005,7 @@
       </c>
       <c r="W22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="18">
         <v>19.0</v>
@@ -4084,7 +4072,7 @@
       </c>
       <c r="W23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="18">
         <v>20.0</v>
@@ -4151,7 +4139,7 @@
       </c>
       <c r="W24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="18">
         <v>21.0</v>
@@ -4218,7 +4206,7 @@
       </c>
       <c r="W25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="18">
         <v>22.0</v>
@@ -4285,7 +4273,7 @@
       </c>
       <c r="W26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="18">
         <v>23.0</v>
@@ -4352,7 +4340,7 @@
       </c>
       <c r="W27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="18">
         <v>24.0</v>
@@ -4419,7 +4407,7 @@
       </c>
       <c r="W28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="18">
         <v>25.0</v>
@@ -4486,7 +4474,7 @@
       </c>
       <c r="W29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="23">
         <v>26.0</v>
@@ -4553,7 +4541,7 @@
       </c>
       <c r="W30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="28" t="s">
         <v>497</v>
@@ -4620,7 +4608,7 @@
       </c>
       <c r="W31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="33" t="s">
         <v>516</v>
@@ -4687,439 +4675,454 @@
       </c>
       <c r="W32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="36"/>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="1"/>
       <c r="B34" s="37" t="s">
         <v>523</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
         <v>524</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
       <c r="S34" s="38"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="36"/>
-      <c r="B35" s="41" t="s">
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="40" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
       <c r="K35" s="38"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="41" t="s">
+      <c r="L35" s="39"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="40" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="38"/>
       <c r="R35" s="38"/>
       <c r="S35" s="38"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="36"/>
-      <c r="B36" s="42" t="s">
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="42" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="38"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="42" t="s">
+      <c r="L36" s="39"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="Q36" s="43" t="s">
+      <c r="Q36" s="42" t="s">
         <v>4</v>
       </c>
       <c r="R36" s="38"/>
       <c r="S36" s="38"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="36"/>
-      <c r="B37" s="44" t="s">
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="43" t="s">
         <v>526</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="42" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="44" t="s">
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="Q37" s="45" t="s">
+      <c r="Q37" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="R37" s="43" t="s">
+      <c r="R37" s="42" t="s">
         <v>5</v>
       </c>
       <c r="S37" s="38"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="36"/>
-      <c r="B38" s="44" t="s">
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="43" t="s">
         <v>529</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="44" t="s">
         <v>531</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="44" t="s">
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="43" t="s">
         <v>532</v>
       </c>
-      <c r="Q38" s="46" t="s">
+      <c r="Q38" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="R38" s="45" t="s">
+      <c r="R38" s="44" t="s">
         <v>534</v>
       </c>
-      <c r="S38" s="43" t="s">
+      <c r="S38" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="36"/>
-      <c r="B39" s="44" t="s">
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="43" t="s">
         <v>535</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="45" t="s">
         <v>536</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="46" t="s">
         <v>537</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="44" t="s">
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="43" t="s">
         <v>539</v>
       </c>
-      <c r="Q39" s="46" t="s">
+      <c r="Q39" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="R39" s="47" t="s">
+      <c r="R39" s="46" t="s">
         <v>541</v>
       </c>
-      <c r="S39" s="45" t="s">
+      <c r="S39" s="44" t="s">
         <v>542</v>
       </c>
-      <c r="T39" s="43" t="s">
+      <c r="T39" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="36"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="36"/>
-      <c r="B40" s="44" t="s">
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="43" t="s">
         <v>543</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="45" t="s">
         <v>544</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="46" t="s">
         <v>545</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="48" t="s">
         <v>546</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="48" t="s">
         <v>547</v>
       </c>
-      <c r="G40" s="43" t="s">
+      <c r="G40" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="44" t="s">
+      <c r="H40" s="39"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="43" t="s">
         <v>548</v>
       </c>
-      <c r="Q40" s="46" t="s">
+      <c r="Q40" s="45" t="s">
         <v>549</v>
       </c>
-      <c r="R40" s="47" t="s">
+      <c r="R40" s="46" t="s">
         <v>550</v>
       </c>
-      <c r="S40" s="49" t="s">
+      <c r="S40" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="T40" s="49" t="s">
+      <c r="T40" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="U40" s="43" t="s">
+      <c r="U40" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V40" s="40"/>
-      <c r="W40" s="36"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="36"/>
-      <c r="B41" s="44" t="s">
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="43" t="s">
         <v>552</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="45" t="s">
         <v>553</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="46" t="s">
         <v>554</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="48" t="s">
         <v>555</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="48" t="s">
         <v>556</v>
       </c>
-      <c r="H41" s="43" t="s">
+      <c r="H41" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="48"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="44" t="s">
+      <c r="I41" s="47"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="43" t="s">
         <v>557</v>
       </c>
-      <c r="Q41" s="46" t="s">
+      <c r="Q41" s="45" t="s">
         <v>558</v>
       </c>
-      <c r="R41" s="47" t="s">
+      <c r="R41" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="S41" s="49" t="s">
+      <c r="S41" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="T41" s="49" t="s">
+      <c r="T41" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="U41" s="49" t="s">
+      <c r="U41" s="48" t="s">
         <v>561</v>
       </c>
-      <c r="V41" s="43" t="s">
+      <c r="V41" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="W41" s="36"/>
+      <c r="W41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="36"/>
-      <c r="B42" s="50" t="s">
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="49" t="s">
         <v>562</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="50" t="s">
         <v>563</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D42" s="51" t="s">
         <v>564</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="47" t="s">
         <v>565</v>
       </c>
-      <c r="G42" s="53" t="s">
+      <c r="G42" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="H42" s="54" t="s">
+      <c r="H42" s="53" t="s">
         <v>566</v>
       </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="50" t="s">
+      <c r="I42" s="47"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="49" t="s">
         <v>567</v>
       </c>
-      <c r="Q42" s="51" t="s">
+      <c r="Q42" s="50" t="s">
         <v>568</v>
       </c>
-      <c r="R42" s="52" t="s">
+      <c r="R42" s="51" t="s">
         <v>569</v>
       </c>
-      <c r="S42" s="53" t="s">
+      <c r="S42" s="52" t="s">
         <v>570</v>
       </c>
-      <c r="T42" s="48" t="s">
+      <c r="T42" s="47" t="s">
         <v>571</v>
       </c>
-      <c r="U42" s="53" t="s">
+      <c r="U42" s="52" t="s">
         <v>572</v>
       </c>
-      <c r="V42" s="54" t="s">
+      <c r="V42" s="53" t="s">
         <v>573</v>
       </c>
-      <c r="W42" s="36"/>
+      <c r="W42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="36"/>
-      <c r="B43" s="55" t="s">
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="54" t="s">
         <v>516</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="55" t="s">
         <v>517</v>
       </c>
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="55" t="s">
         <v>518</v>
       </c>
-      <c r="E43" s="56" t="s">
+      <c r="E43" s="55" t="s">
         <v>519</v>
       </c>
-      <c r="F43" s="56" t="s">
+      <c r="F43" s="55" t="s">
         <v>520</v>
       </c>
-      <c r="G43" s="56" t="s">
+      <c r="G43" s="55" t="s">
         <v>521</v>
       </c>
-      <c r="H43" s="57" t="s">
+      <c r="H43" s="56" t="s">
         <v>522</v>
       </c>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="55" t="s">
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="54" t="s">
         <v>516</v>
       </c>
-      <c r="Q43" s="56" t="s">
+      <c r="Q43" s="55" t="s">
         <v>517</v>
       </c>
-      <c r="R43" s="56" t="s">
+      <c r="R43" s="55" t="s">
         <v>518</v>
       </c>
-      <c r="S43" s="56" t="s">
+      <c r="S43" s="55" t="s">
         <v>519</v>
       </c>
-      <c r="T43" s="56" t="s">
+      <c r="T43" s="55" t="s">
         <v>520</v>
       </c>
-      <c r="U43" s="56" t="s">
+      <c r="U43" s="55" t="s">
         <v>521</v>
       </c>
-      <c r="V43" s="57" t="s">
+      <c r="V43" s="56" t="s">
         <v>522</v>
       </c>
-      <c r="W43" s="36"/>
+      <c r="W43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>

--- a/waves20/waves20.xlsx
+++ b/waves20/waves20.xlsx
@@ -2214,123 +2214,124 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="27" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="30" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="32" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -2340,9 +2341,6 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="35" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
@@ -2372,9 +2370,6 @@
     </xf>
     <xf borderId="40" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
@@ -4714,7 +4709,7 @@
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
+      <c r="L34" s="38"/>
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
@@ -4731,7 +4726,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="38"/>
@@ -4743,11 +4738,11 @@
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
       <c r="K35" s="38"/>
-      <c r="L35" s="39"/>
+      <c r="L35" s="38"/>
       <c r="M35" s="36"/>
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
-      <c r="P35" s="40" t="s">
+      <c r="P35" s="39" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="38"/>
@@ -4760,10 +4755,10 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="38"/>
@@ -4774,14 +4769,14 @@
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="38"/>
-      <c r="L36" s="39"/>
+      <c r="L36" s="38"/>
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
-      <c r="P36" s="41" t="s">
+      <c r="P36" s="40" t="s">
         <v>454</v>
       </c>
-      <c r="Q36" s="42" t="s">
+      <c r="Q36" s="41" t="s">
         <v>4</v>
       </c>
       <c r="R36" s="38"/>
@@ -4793,13 +4788,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="42" t="s">
         <v>527</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="41" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="38"/>
@@ -4808,18 +4803,18 @@
       <c r="H37" s="36"/>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
       <c r="M37" s="36"/>
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
-      <c r="P37" s="43" t="s">
+      <c r="P37" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="Q37" s="44" t="s">
+      <c r="Q37" s="42" t="s">
         <v>528</v>
       </c>
-      <c r="R37" s="42" t="s">
+      <c r="R37" s="41" t="s">
         <v>5</v>
       </c>
       <c r="S37" s="38"/>
@@ -4830,38 +4825,38 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="42" t="s">
         <v>531</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="41" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
       <c r="H38" s="36"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
-      <c r="P38" s="43" t="s">
+      <c r="P38" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="Q38" s="45" t="s">
+      <c r="Q38" s="43" t="s">
         <v>533</v>
       </c>
-      <c r="R38" s="44" t="s">
+      <c r="R38" s="42" t="s">
         <v>534</v>
       </c>
-      <c r="S38" s="42" t="s">
+      <c r="S38" s="41" t="s">
         <v>6</v>
       </c>
       <c r="T38" s="36"/>
@@ -4871,225 +4866,225 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="43" t="s">
         <v>536</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="42" t="s">
         <v>538</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="47"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="45"/>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
-      <c r="P39" s="43" t="s">
+      <c r="P39" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="Q39" s="45" t="s">
+      <c r="Q39" s="43" t="s">
         <v>540</v>
       </c>
-      <c r="R39" s="46" t="s">
+      <c r="R39" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="S39" s="44" t="s">
+      <c r="S39" s="42" t="s">
         <v>542</v>
       </c>
-      <c r="T39" s="42" t="s">
+      <c r="T39" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
       <c r="W39" s="1"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="43" t="s">
         <v>544</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="44" t="s">
         <v>545</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="46" t="s">
         <v>546</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="47"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="45"/>
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
-      <c r="P40" s="43" t="s">
+      <c r="P40" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="Q40" s="45" t="s">
+      <c r="Q40" s="43" t="s">
         <v>549</v>
       </c>
-      <c r="R40" s="46" t="s">
+      <c r="R40" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="S40" s="48" t="s">
+      <c r="S40" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="T40" s="48" t="s">
+      <c r="T40" s="46" t="s">
         <v>551</v>
       </c>
-      <c r="U40" s="42" t="s">
+      <c r="U40" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="V40" s="39"/>
+      <c r="V40" s="38"/>
       <c r="W40" s="1"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="44" t="s">
         <v>554</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="46" t="s">
         <v>555</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="48" t="s">
+      <c r="G41" s="46" t="s">
         <v>556</v>
       </c>
-      <c r="H41" s="42" t="s">
+      <c r="H41" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="47"/>
+      <c r="I41" s="45"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
-      <c r="P41" s="43" t="s">
+      <c r="P41" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="Q41" s="45" t="s">
+      <c r="Q41" s="43" t="s">
         <v>558</v>
       </c>
-      <c r="R41" s="46" t="s">
+      <c r="R41" s="44" t="s">
         <v>559</v>
       </c>
-      <c r="S41" s="48" t="s">
+      <c r="S41" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="T41" s="48" t="s">
+      <c r="T41" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="U41" s="48" t="s">
+      <c r="U41" s="46" t="s">
         <v>561</v>
       </c>
-      <c r="V41" s="42" t="s">
+      <c r="V41" s="41" t="s">
         <v>9</v>
       </c>
       <c r="W41" s="1"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="47" t="s">
         <v>562</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="48" t="s">
         <v>563</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="49" t="s">
         <v>564</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="F42" s="47" t="s">
+      <c r="F42" s="45" t="s">
         <v>565</v>
       </c>
-      <c r="G42" s="52" t="s">
+      <c r="G42" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="H42" s="53" t="s">
+      <c r="H42" s="51" t="s">
         <v>566</v>
       </c>
-      <c r="I42" s="47"/>
+      <c r="I42" s="45"/>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
-      <c r="P42" s="49" t="s">
+      <c r="P42" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="Q42" s="50" t="s">
+      <c r="Q42" s="48" t="s">
         <v>568</v>
       </c>
-      <c r="R42" s="51" t="s">
+      <c r="R42" s="49" t="s">
         <v>569</v>
       </c>
-      <c r="S42" s="52" t="s">
+      <c r="S42" s="50" t="s">
         <v>570</v>
       </c>
-      <c r="T42" s="47" t="s">
+      <c r="T42" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="U42" s="52" t="s">
+      <c r="U42" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="V42" s="53" t="s">
+      <c r="V42" s="51" t="s">
         <v>573</v>
       </c>
       <c r="W42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="33" t="s">
         <v>516</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="52" t="s">
         <v>517</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="52" t="s">
         <v>518</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="F43" s="55" t="s">
+      <c r="F43" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="52" t="s">
         <v>521</v>
       </c>
-      <c r="H43" s="56" t="s">
+      <c r="H43" s="53" t="s">
         <v>522</v>
       </c>
       <c r="I43" s="36"/>
@@ -5099,25 +5094,25 @@
       <c r="M43" s="36"/>
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
-      <c r="P43" s="54" t="s">
+      <c r="P43" s="33" t="s">
         <v>516</v>
       </c>
-      <c r="Q43" s="55" t="s">
+      <c r="Q43" s="52" t="s">
         <v>517</v>
       </c>
-      <c r="R43" s="55" t="s">
+      <c r="R43" s="52" t="s">
         <v>518</v>
       </c>
-      <c r="S43" s="55" t="s">
+      <c r="S43" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="T43" s="55" t="s">
+      <c r="T43" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="U43" s="55" t="s">
+      <c r="U43" s="52" t="s">
         <v>521</v>
       </c>
-      <c r="V43" s="56" t="s">
+      <c r="V43" s="53" t="s">
         <v>522</v>
       </c>
       <c r="W43" s="1"/>
